--- a/player-analysis/server/customer_model_data/player_activity.csv.xlsx
+++ b/player-analysis/server/customer_model_data/player_activity.csv.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectDocs\angular_projects\graphs-app\customer_model_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prototype_login\customer_model_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,18 +35,9 @@
     <t>Low Activity</t>
   </si>
   <si>
-    <t>No Activity</t>
-  </si>
-  <si>
-    <t>Entire Lifecycle Stage</t>
-  </si>
-  <si>
     <t>2016_09_10</t>
   </si>
   <si>
-    <t>2016_08_27</t>
-  </si>
-  <si>
     <t>Period</t>
   </si>
   <si>
@@ -60,16 +51,25 @@
   </si>
   <si>
     <t>no_of_active_days_lifetime</t>
+  </si>
+  <si>
+    <t>Medium Activity</t>
+  </si>
+  <si>
+    <t>High Activity</t>
+  </si>
+  <si>
+    <t>2016_09_25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$€-2]\ #,##0;[Red]\-[$€-2]\ #,##0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,19 +80,6 @@
     <font>
       <b/>
       <sz val="8"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -127,18 +114,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,179 +441,179 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="28.75" customWidth="1"/>
+    <col min="5" max="5" width="25.625" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>8</v>
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
+        <v>2913</v>
+      </c>
+      <c r="D2" s="3">
+        <v>22755</v>
       </c>
       <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>100</v>
+        <v>9</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.48430000000000001</v>
+      </c>
+      <c r="G2" s="6">
+        <v>682.64</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
       <c r="C3">
-        <v>54726</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
+        <v>1568</v>
+      </c>
+      <c r="D3" s="3">
+        <v>22714</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4">
-        <v>200</v>
+        <v>20</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.26069999999999999</v>
+      </c>
+      <c r="G3" s="6">
+        <v>908.57</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>54728</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
+        <v>1534</v>
+      </c>
+      <c r="D4" s="3">
+        <v>33106</v>
       </c>
       <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>300</v>
+        <v>30</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.255</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1655.3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>54728</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
+        <v>2913</v>
+      </c>
+      <c r="D5" s="3">
+        <v>22755</v>
       </c>
       <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>400</v>
+        <v>9</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.48430000000000001</v>
+      </c>
+      <c r="G5" s="6">
+        <v>682.64</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>54726</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
+        <v>1568</v>
+      </c>
+      <c r="D6" s="3">
+        <v>22714</v>
       </c>
       <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4">
-        <v>500</v>
+        <v>20</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.26069999999999999</v>
+      </c>
+      <c r="G6" s="6">
+        <v>908.57</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
+        <v>1534</v>
+      </c>
+      <c r="D7" s="3">
+        <v>33106</v>
       </c>
       <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>600</v>
+        <v>30</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.255</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1655.3</v>
       </c>
     </row>
   </sheetData>
